--- a/GSD/trap_CDFs/RMSE_WD_correlations.xlsx
+++ b/GSD/trap_CDFs/RMSE_WD_correlations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\GSD\trap_CDFs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\La_Jara\GSD\trap_CDFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508497BF-54EB-465C-9D42-E6054B8D2DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E527B8BF-CFF9-4101-85E7-649EB2C2B2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" xr2:uid="{3B202022-C037-466F-B3B1-C6A706793C72}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3B202022-C037-466F-B3B1-C6A706793C72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
   <si>
     <t>Closed Baskets</t>
   </si>
@@ -133,12 +133,19 @@
   <si>
     <t>Down Closed</t>
   </si>
+  <si>
+    <t>Flux</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,8 +161,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,8 +217,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDEDED"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -241,11 +272,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,16 +373,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -307,10 +438,4909 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>RMSE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR" baseline="0"/>
+              <a:t> trap GSD to WC - Spring </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Closed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.5293722250523638E-2"/>
+                  <c:y val="0.25714514896146912"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.3599999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.264E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0149999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.17E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.538E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.762E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8239999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4900000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.248E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4799999999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.22851828638601948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22851828638601948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.3027637470411495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.3318329100743891E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0766638815107075E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0766638815107075E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.8520880931257544E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.340384840026668E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.340384840026668E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.2730377491297959E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E4AE-4D28-AB78-DF2E871026FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Open</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.18616404199475065"/>
+                  <c:y val="0.18593722659667541"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0120000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9300000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0899999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1820000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.116E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.038E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0410000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$15:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.22851828638601948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22851828638601948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.3027637470411495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.3318329100743891E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0766638815107075E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0766638815107075E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.8520880931257544E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.340384840026668E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.340384840026668E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.2730377491297959E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-E4AE-4D28-AB78-DF2E871026FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="932409728"/>
+        <c:axId val="932423168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="932409728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="932423168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="932423168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="932409728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>RMSE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR" baseline="0"/>
+              <a:t> trap GSD to WC - Summer </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Closed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.5293722250523638E-2"/>
+                  <c:y val="0.25714514896146912"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.264E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7399999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2700000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4120000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4900000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.6799999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.41E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.10058679002726996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.10058679002726996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.32001589401318453</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>-0.3029856615539851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11743877238132332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11743877238132332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.0279254833040401E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.11251612892623995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.11251612892623995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.9570413884485784E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DDDB-41C1-902E-244EB93B1D23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Open</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.26823787829301216"/>
+                  <c:y val="-6.3463153623297816E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$15:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.2000000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9300000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6699999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7139999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1800000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0329999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8599999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1849999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6580000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$15:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.10058679002726996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.10058679002726996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.32001589401318453</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>-0.3029856615539851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11743877238132332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11743877238132332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.0279254833040401E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.11251612892623995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.11251612892623995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.9570413884485784E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DDDB-41C1-902E-244EB93B1D23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="932409728"/>
+        <c:axId val="932423168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="932409728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="932423168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="932423168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="932409728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR" baseline="0"/>
+              <a:t>WD trap GSD to WC - Spring </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Closed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.42595021229777646"/>
+                  <c:y val="-6.4900055974135173E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.1199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.77E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7199999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1899999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.22851828638601948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22851828638601948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.3027637470411495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.3318329100743891E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0766638815107075E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0766638815107075E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.8520880931257544E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.340384840026668E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.340384840026668E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.2730377491297959E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9358-41D9-9D93-8BD2D7276D92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>OPen</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.36743400041690399"/>
+                  <c:y val="6.0553052873990196E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$15:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.8100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4199999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3799999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1299999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5200000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6899999999999996E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$15:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.22851828638601948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22851828638601948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.3027637470411495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.3318329100743891E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0766638815107075E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0766638815107075E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.8520880931257544E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.340384840026668E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.340384840026668E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.2730377491297959E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9358-41D9-9D93-8BD2D7276D92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="932409728"/>
+        <c:axId val="932423168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="932409728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="932423168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="932423168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="932409728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR" baseline="0"/>
+              <a:t>WD trap GSD to WC - Summer </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Closed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1233539816004878"/>
+                  <c:y val="0.2511428086102277"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.77E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9300000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4100000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3899999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3500000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1800000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.10058679002726996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.10058679002726996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.32001589401318453</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>-0.3029856615539851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11743877238132332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11743877238132332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.0279254833040401E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.11251612892623995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.11251612892623995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.9570413884485784E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B812-408E-9941-563592717E0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Open</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.26823787829301216"/>
+                  <c:y val="-6.3463153623297816E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$15:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.8100000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$15:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.10058679002726996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.10058679002726996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.32001589401318453</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>-0.3029856615539851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11743877238132332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11743877238132332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.0279254833040401E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.11251612892623995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.11251612892623995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.9570413884485784E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B812-408E-9941-563592717E0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="932409728"/>
+        <c:axId val="932423168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="932409728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="932423168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="932423168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="932409728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>327661</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>176299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>258417</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>106017</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B15042-C61B-2551-53FC-6A62E5AC4630}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>344556</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>125896</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>275312</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>18871</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A34C2537-298E-474E-864E-DFE173EDA756}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>387296</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>169672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>318052</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3455E412-60BD-4581-AAD3-8755AC74DB56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>404191</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>334947</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12244</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89211E40-E42B-40DA-86A4-4DF9F60E59D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -348,7 +5378,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -454,7 +5484,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -596,7 +5626,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -604,34 +5634,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6BAC0E-B490-4875-873A-06322A33D985}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="12"/>
-      <c r="F1" s="14" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="G1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="14"/>
+      <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,18 +5674,24 @@
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -662,18 +5701,23 @@
       <c r="C3" s="9">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="12">
+        <v>0.22851828638601948</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9">
+      <c r="G3" s="9">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G3" s="9">
+      <c r="H3" s="9">
         <v>1.55E-2</v>
       </c>
+      <c r="I3" s="24">
+        <v>-0.10058679002726996</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -683,18 +5727,23 @@
       <c r="C4" s="9">
         <v>8.77E-2</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="12">
+        <v>0.22851828638601948</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="9">
+      <c r="G4" s="9">
         <v>1.264E-2</v>
       </c>
-      <c r="G4" s="9">
+      <c r="H4" s="9">
         <v>8.77E-2</v>
       </c>
+      <c r="I4" s="24">
+        <v>-0.10058679002726996</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -704,18 +5753,23 @@
       <c r="C5" s="9">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="13">
+        <v>-0.3027637470411495</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="9">
+      <c r="G5" s="9">
         <v>2.7399999999999998E-3</v>
       </c>
-      <c r="G5" s="9">
+      <c r="H5" s="9">
         <v>3.8300000000000001E-2</v>
       </c>
+      <c r="I5" s="25">
+        <v>-0.32001589401318453</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -725,18 +5779,23 @@
       <c r="C6" s="9">
         <v>8.3799999999999999E-2</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="14">
+        <v>-9.3318329100743891E-2</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="9">
+      <c r="G6" s="9">
         <v>4.2700000000000004E-3</v>
       </c>
-      <c r="G6" s="9">
+      <c r="H6" s="9">
         <v>4.8500000000000001E-2</v>
       </c>
+      <c r="I6" s="14">
+        <v>-0.3029856615539851</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -746,18 +5805,23 @@
       <c r="C7" s="9">
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="15">
+        <v>5.0766638815107075E-2</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="9">
+      <c r="G7" s="9">
         <v>1.4120000000000001E-2</v>
       </c>
-      <c r="G7" s="9">
+      <c r="H7" s="9">
         <v>8.9300000000000004E-2</v>
       </c>
+      <c r="I7" s="26">
+        <v>0.11743877238132332</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -767,18 +5831,23 @@
       <c r="C8" s="9">
         <v>0.10199999999999999</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="15">
+        <v>5.0766638815107075E-2</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="9">
+      <c r="G8" s="9">
         <v>6.1100000000000002E-2</v>
       </c>
-      <c r="G8" s="9">
+      <c r="H8" s="9">
         <v>0.18640000000000001</v>
       </c>
+      <c r="I8" s="26">
+        <v>0.11743877238132332</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -788,18 +5857,23 @@
       <c r="C9" s="9">
         <v>0.1026</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="16">
+        <v>-3.8520880931257544E-2</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="9">
+      <c r="G9" s="9">
         <v>7.4900000000000001E-3</v>
       </c>
-      <c r="G9" s="9">
+      <c r="H9" s="9">
         <v>6.4100000000000004E-2</v>
       </c>
+      <c r="I9" s="27">
+        <v>-4.0279254833040401E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -809,18 +5883,23 @@
       <c r="C10" s="9">
         <v>7.2700000000000001E-2</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="13">
+        <v>-6.340384840026668E-2</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="9">
+      <c r="G10" s="9">
         <v>9.6799999999999994E-3</v>
       </c>
-      <c r="G10" s="9">
+      <c r="H10" s="9">
         <v>7.3899999999999993E-2</v>
       </c>
+      <c r="I10" s="25">
+        <v>-0.11251612892623995</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -830,50 +5909,60 @@
       <c r="C11" s="9">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="13">
+        <v>-6.340384840026668E-2</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="9">
+      <c r="G11" s="9">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="G11" s="9">
+      <c r="H11" s="9">
         <v>8.3500000000000005E-2</v>
       </c>
+      <c r="I11" s="25">
+        <v>-0.11251612892623995</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="9">
         <v>6.4799999999999996E-3</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="9">
         <v>6.1899999999999997E-2</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="17">
+        <v>-3.2730377491297959E-2</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="9">
+      <c r="G12" s="9">
         <v>1.41E-3</v>
       </c>
-      <c r="G12" s="9">
+      <c r="H12" s="9">
         <v>3.1800000000000002E-2</v>
       </c>
+      <c r="I12" s="24">
+        <v>-4.9570413884485784E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="12"/>
-      <c r="F13" s="14" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="9"/>
+      <c r="G13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="14"/>
+      <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -883,372 +5972,440 @@
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="I14" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="18">
         <v>1.0120000000000001E-2</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="19">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="12">
+        <v>0.22851828638601948</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="9">
+      <c r="G15" s="9">
         <v>3.2000000000000003E-4</v>
       </c>
-      <c r="G15" s="9">
+      <c r="H15" s="9">
         <v>1.3100000000000001E-2</v>
       </c>
+      <c r="I15" s="24">
+        <v>-0.10058679002726996</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="20">
         <v>6.9300000000000004E-3</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="21">
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="12">
+        <v>0.22851828638601948</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="9">
+      <c r="G16" s="9">
         <v>6.9300000000000004E-3</v>
       </c>
-      <c r="G16" s="9">
+      <c r="H16" s="9">
         <v>6.0600000000000001E-2</v>
       </c>
+      <c r="I16" s="24">
+        <v>-0.10058679002726996</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="20">
         <v>4.0899999999999999E-3</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="21">
         <v>4.9099999999999998E-2</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="13">
+        <v>-0.3027637470411495</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="9">
+      <c r="G17" s="9">
         <v>5.6699999999999997E-3</v>
       </c>
-      <c r="G17" s="9">
+      <c r="H17" s="9">
         <v>5.6899999999999999E-2</v>
       </c>
+      <c r="I17" s="25">
+        <v>-0.32001589401318453</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="20">
         <v>1.1820000000000001E-2</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="21">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="14">
+        <v>-9.3318329100743891E-2</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="9">
+      <c r="G18" s="9">
         <v>3.7139999999999999E-2</v>
       </c>
-      <c r="G18" s="9">
+      <c r="H18" s="9">
         <v>0.14069999999999999</v>
       </c>
+      <c r="I18" s="14">
+        <v>-0.3029856615539851</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="20">
         <v>1.4749999999999999E-2</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="21">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="15">
+        <v>5.0766638815107075E-2</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="9">
+      <c r="G19" s="9">
         <v>9.1800000000000007E-3</v>
       </c>
-      <c r="G19" s="9">
+      <c r="H19" s="9">
         <v>7.1300000000000002E-2</v>
       </c>
+      <c r="I19" s="26">
+        <v>0.11743877238132332</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="20">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="21">
         <v>6.1800000000000001E-2</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="15">
+        <v>5.0766638815107075E-2</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="9">
+      <c r="G20" s="9">
         <v>4.0329999999999998E-2</v>
       </c>
-      <c r="G20" s="9">
+      <c r="H20" s="9">
         <v>0.14949999999999999</v>
       </c>
+      <c r="I20" s="26">
+        <v>0.11743877238132332</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="20">
         <v>1.116E-2</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="21">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="D21" s="16">
+        <v>-3.8520880931257544E-2</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="9">
+      <c r="G21" s="9">
         <v>6.8599999999999998E-3</v>
       </c>
-      <c r="G21" s="9">
+      <c r="H21" s="9">
         <v>6.2899999999999998E-2</v>
       </c>
+      <c r="I21" s="27">
+        <v>-4.0279254833040401E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="20">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="21">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="D22" s="13">
+        <v>-6.340384840026668E-2</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="9">
+      <c r="G22" s="9">
         <v>3.8999999999999999E-4</v>
       </c>
-      <c r="G22" s="9">
+      <c r="H22" s="9">
         <v>1.5699999999999999E-2</v>
       </c>
+      <c r="I22" s="25">
+        <v>-0.11251612892623995</v>
+      </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="20">
         <v>1.038E-2</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="21">
         <v>7.5200000000000003E-2</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="13">
+        <v>-6.340384840026668E-2</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="9">
+      <c r="G23" s="9">
         <v>4.1849999999999998E-2</v>
       </c>
-      <c r="G23" s="9">
+      <c r="H23" s="9">
         <v>0.15040000000000001</v>
       </c>
+      <c r="I23" s="25">
+        <v>-0.11251612892623995</v>
+      </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="22">
         <v>1.0410000000000001E-2</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="23">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="D24" s="17">
+        <v>-3.2730377491297959E-2</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="9">
+      <c r="G24" s="9">
         <v>1.6580000000000001E-2</v>
       </c>
-      <c r="G24" s="9">
+      <c r="H24" s="9">
         <v>9.8100000000000007E-2</v>
       </c>
+      <c r="I24" s="24">
+        <v>-4.9570413884485784E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="F27" s="14" t="s">
+      <c r="C27" s="11"/>
+      <c r="G27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="14"/>
+      <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="G28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="H28" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="1">
         <v>9.2399999999999999E-3</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="1">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="F29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="11">
+      <c r="G29" s="1">
         <v>1.8699999999999999E-3</v>
       </c>
-      <c r="G29" s="11">
+      <c r="H29" s="1">
         <v>3.5799999999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="1">
         <v>1.205E-2</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="1">
         <v>8.48E-2</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="F30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="11">
+      <c r="G30" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="G30" s="11">
+      <c r="H30" s="1">
         <v>4.6600000000000003E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F31" s="9"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="1">
         <v>9.2899999999999996E-3</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="1">
         <v>7.4300000000000005E-2</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="F32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="11">
+      <c r="G32" s="1">
         <v>2.181E-2</v>
       </c>
-      <c r="G32" s="11">
+      <c r="H32" s="1">
         <v>0.1104</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="1">
         <v>1.3220000000000001E-2</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="1">
         <v>8.9499999999999996E-2</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="F33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="11">
+      <c r="G33" s="1">
         <v>3.261E-2</v>
       </c>
-      <c r="G33" s="11">
+      <c r="H33" s="1">
         <v>0.13789999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="1">
         <v>9.2200000000000008E-3</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="1">
         <v>7.3800000000000004E-2</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="F35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="11">
+      <c r="G35" s="1">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="G35" s="11">
+      <c r="H35" s="1">
         <v>7.51E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="1">
         <v>1.149E-2</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="1">
         <v>8.2400000000000001E-2</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="F36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="11">
+      <c r="G36" s="1">
         <v>7.5300000000000002E-3</v>
       </c>
-      <c r="G36" s="11">
+      <c r="H36" s="1">
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
@@ -1256,11 +6413,13 @@
   <mergeCells count="6">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="G27:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>